--- a/test_files/Client Summary.xlsx
+++ b/test_files/Client Summary.xlsx
@@ -27,7 +27,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C40+Челябинск!R41C41+Челябинск!R41C78+Челябинск!R41C79+Челябинск!R41C119+Челябинск!R41C120</t>
+          <t>formula:=Челябинск!R41C40+Челябинск!R41C41+Челябинск!R41C78+Челябинск!R41C79+Челябинск!R41C119+Челябинск!R41C120</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C42+Челябинск!R41C43+Челябинск!R41C80+Челябинск!R41C81+Челябинск!R41C121+Челябинск!R41C122</t>
+          <t>formula:=Челябинск!R41C42+Челябинск!R41C43+Челябинск!R41C80+Челябинск!R41C81+Челябинск!R41C121+Челябинск!R41C122</t>
         </r>
       </text>
     </comment>
@@ -51,7 +51,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C44+Челябинск!R41C45+Челябинск!R41C82+Челябинск!R41C83+Челябинск!R41C123+Челябинск!R41C124</t>
+          <t>formula:=Челябинск!R41C44+Челябинск!R41C45+Челябинск!R41C82+Челябинск!R41C83+Челябинск!R41C123+Челябинск!R41C124</t>
         </r>
       </text>
     </comment>
@@ -63,7 +63,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C46+Челябинск!R41C84+Челябинск!R41C125</t>
+          <t>formula:=Челябинск!R41C46+Челябинск!R41C84+Челябинск!R41C125</t>
         </r>
       </text>
     </comment>
@@ -147,7 +147,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C40+Челябинск!R41C41</t>
+          <t>formula:=Челябинск!R41C40+Челябинск!R41C41</t>
         </r>
       </text>
     </comment>
@@ -159,7 +159,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C42+Челябинск!R41C43</t>
+          <t>formula:=Челябинск!R41C42+Челябинск!R41C43</t>
         </r>
       </text>
     </comment>
@@ -171,7 +171,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C44+Челябинск!R41C45</t>
+          <t>formula:=Челябинск!R41C44+Челябинск!R41C45</t>
         </r>
       </text>
     </comment>
@@ -183,7 +183,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C46</t>
+          <t>formula:=Челябинск!R41C46</t>
         </r>
       </text>
     </comment>
@@ -243,7 +243,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C78+Челябинск!R41C79</t>
+          <t>formula:=Челябинск!R41C78+Челябинск!R41C79</t>
         </r>
       </text>
     </comment>
@@ -255,7 +255,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C80+Челябинск!R41C81</t>
+          <t>formula:=Челябинск!R41C80+Челябинск!R41C81</t>
         </r>
       </text>
     </comment>
@@ -267,7 +267,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C82+Челябинск!R41C83</t>
+          <t>formula:=Челябинск!R41C82+Челябинск!R41C83</t>
         </r>
       </text>
     </comment>
@@ -279,7 +279,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C84</t>
+          <t>formula:=Челябинск!R41C84</t>
         </r>
       </text>
     </comment>
@@ -339,7 +339,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C119+Челябинск!R41C120</t>
+          <t>formula:=Челябинск!R41C119+Челябинск!R41C120</t>
         </r>
       </text>
     </comment>
@@ -351,7 +351,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C121+Челябинск!R41C122</t>
+          <t>formula:=Челябинск!R41C121+Челябинск!R41C122</t>
         </r>
       </text>
     </comment>
@@ -363,7 +363,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C123+Челябинск!R41C124</t>
+          <t>formula:=Челябинск!R41C123+Челябинск!R41C124</t>
         </r>
       </text>
     </comment>
@@ -375,7 +375,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Челябинск!R41C125</t>
+          <t>formula:=Челябинск!R41C125</t>
         </r>
       </text>
     </comment>
@@ -459,7 +459,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C40+Ярославль!R41C41+Ярославль!R41C78+Ярославль!R41C79+Ярославль!R41C119+Ярославль!R41C120</t>
+          <t>formula:=Ярославль!R41C40+Ярославль!R41C41+Ярославль!R41C78+Ярославль!R41C79+Ярославль!R41C119+Ярославль!R41C120</t>
         </r>
       </text>
     </comment>
@@ -471,7 +471,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C42+Ярославль!R41C43+Ярославль!R41C80+Ярославль!R41C81+Ярославль!R41C121+Ярославль!R41C122</t>
+          <t>formula:=Ярославль!R41C42+Ярославль!R41C43+Ярославль!R41C80+Ярославль!R41C81+Ярославль!R41C121+Ярославль!R41C122</t>
         </r>
       </text>
     </comment>
@@ -483,7 +483,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C44+Ярославль!R41C45+Ярославль!R41C82+Ярославль!R41C83+Ярославль!R41C123+Ярославль!R41C124</t>
+          <t>formula:=Ярославль!R41C44+Ярославль!R41C45+Ярославль!R41C82+Ярославль!R41C83+Ярославль!R41C123+Ярославль!R41C124</t>
         </r>
       </text>
     </comment>
@@ -495,7 +495,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C46+Ярославль!R41C84+Ярославль!R41C125</t>
+          <t>formula:=Ярославль!R41C46+Ярославль!R41C84+Ярославль!R41C125</t>
         </r>
       </text>
     </comment>
@@ -579,7 +579,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C40+Ярославль!R41C41</t>
+          <t>formula:=Ярославль!R41C40+Ярославль!R41C41</t>
         </r>
       </text>
     </comment>
@@ -591,7 +591,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C42+Ярославль!R41C43</t>
+          <t>formula:=Ярославль!R41C42+Ярославль!R41C43</t>
         </r>
       </text>
     </comment>
@@ -603,7 +603,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C44+Ярославль!R41C45</t>
+          <t>formula:=Ярославль!R41C44+Ярославль!R41C45</t>
         </r>
       </text>
     </comment>
@@ -615,7 +615,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C46</t>
+          <t>formula:=Ярославль!R41C46</t>
         </r>
       </text>
     </comment>
@@ -675,7 +675,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C78+Ярославль!R41C79</t>
+          <t>formula:=Ярославль!R41C78+Ярославль!R41C79</t>
         </r>
       </text>
     </comment>
@@ -687,7 +687,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C80+Ярославль!R41C81</t>
+          <t>formula:=Ярославль!R41C80+Ярославль!R41C81</t>
         </r>
       </text>
     </comment>
@@ -699,7 +699,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C82+Ярославль!R41C83</t>
+          <t>formula:=Ярославль!R41C82+Ярославль!R41C83</t>
         </r>
       </text>
     </comment>
@@ -711,7 +711,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C84</t>
+          <t>formula:=Ярославль!R41C84</t>
         </r>
       </text>
     </comment>
@@ -771,7 +771,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C119+Ярославль!R41C120</t>
+          <t>formula:=Ярославль!R41C119+Ярославль!R41C120</t>
         </r>
       </text>
     </comment>
@@ -783,7 +783,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C121+Ярославль!R41C122</t>
+          <t>formula:=Ярославль!R41C121+Ярославль!R41C122</t>
         </r>
       </text>
     </comment>
@@ -795,7 +795,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C123+Ярославль!R41C124</t>
+          <t>formula:=Ярославль!R41C123+Ярославль!R41C124</t>
         </r>
       </text>
     </comment>
@@ -807,7 +807,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=Ярославль!R41C125</t>
+          <t>formula:=Ярославль!R41C125</t>
         </r>
       </text>
     </comment>
@@ -891,7 +891,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C40+сеть!R41C41+сеть!R41C78+сеть!R41C79+сеть!R41C119+сеть!R41C120</t>
+          <t>formula:=сеть!R41C40+сеть!R41C41+сеть!R41C78+сеть!R41C79+сеть!R41C119+сеть!R41C120</t>
         </r>
       </text>
     </comment>
@@ -903,7 +903,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C42+сеть!R41C43+сеть!R41C80+сеть!R41C81+сеть!R41C121+сеть!R41C122</t>
+          <t>formula:=сеть!R41C42+сеть!R41C43+сеть!R41C80+сеть!R41C81+сеть!R41C121+сеть!R41C122</t>
         </r>
       </text>
     </comment>
@@ -915,7 +915,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C44+сеть!R41C45+сеть!R41C82+сеть!R41C83+сеть!R41C123+сеть!R41C124</t>
+          <t>formula:=сеть!R41C44+сеть!R41C45+сеть!R41C82+сеть!R41C83+сеть!R41C123+сеть!R41C124</t>
         </r>
       </text>
     </comment>
@@ -927,7 +927,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C46+сеть!R41C84+сеть!R41C125</t>
+          <t>formula:=сеть!R41C46+сеть!R41C84+сеть!R41C125</t>
         </r>
       </text>
     </comment>
@@ -1011,7 +1011,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C40+сеть!R41C41</t>
+          <t>formula:=сеть!R41C40+сеть!R41C41</t>
         </r>
       </text>
     </comment>
@@ -1023,7 +1023,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C42+сеть!R41C43</t>
+          <t>formula:=сеть!R41C42+сеть!R41C43</t>
         </r>
       </text>
     </comment>
@@ -1035,7 +1035,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C44+сеть!R41C45</t>
+          <t>formula:=сеть!R41C44+сеть!R41C45</t>
         </r>
       </text>
     </comment>
@@ -1047,7 +1047,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C46</t>
+          <t>formula:=сеть!R41C46</t>
         </r>
       </text>
     </comment>
@@ -1107,7 +1107,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C78+сеть!R41C79</t>
+          <t>formula:=сеть!R41C78+сеть!R41C79</t>
         </r>
       </text>
     </comment>
@@ -1119,7 +1119,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C80+сеть!R41C81</t>
+          <t>formula:=сеть!R41C80+сеть!R41C81</t>
         </r>
       </text>
     </comment>
@@ -1131,7 +1131,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C82+сеть!R41C83</t>
+          <t>formula:=сеть!R41C82+сеть!R41C83</t>
         </r>
       </text>
     </comment>
@@ -1143,7 +1143,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C84</t>
+          <t>formula:=сеть!R41C84</t>
         </r>
       </text>
     </comment>
@@ -1203,7 +1203,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C119+сеть!R41C120</t>
+          <t>formula:=сеть!R41C119+сеть!R41C120</t>
         </r>
       </text>
     </comment>
@@ -1215,7 +1215,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C121+сеть!R41C122</t>
+          <t>formula:=сеть!R41C121+сеть!R41C122</t>
         </r>
       </text>
     </comment>
@@ -1227,7 +1227,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C123+сеть!R41C124</t>
+          <t>formula:=сеть!R41C123+сеть!R41C124</t>
         </r>
       </text>
     </comment>
@@ -1239,7 +1239,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R41C125</t>
+          <t>formula:=сеть!R41C125</t>
         </r>
       </text>
     </comment>
@@ -1299,7 +1299,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C40+сеть!R81C41+сеть!R81C78+сеть!R81C79+сеть!R81C119+сеть!R81C120</t>
+          <t>formula:=сеть!R81C40+сеть!R81C41+сеть!R81C78+сеть!R81C79+сеть!R81C119+сеть!R81C120</t>
         </r>
       </text>
     </comment>
@@ -1311,7 +1311,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C42+сеть!R81C43+сеть!R81C80+сеть!R81C81+сеть!R81C121+сеть!R81C122</t>
+          <t>formula:=сеть!R81C42+сеть!R81C43+сеть!R81C80+сеть!R81C81+сеть!R81C121+сеть!R81C122</t>
         </r>
       </text>
     </comment>
@@ -1323,7 +1323,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C44+сеть!R81C45+сеть!R81C82+сеть!R81C83+сеть!R81C123+сеть!R81C124</t>
+          <t>formula:=сеть!R81C44+сеть!R81C45+сеть!R81C82+сеть!R81C83+сеть!R81C123+сеть!R81C124</t>
         </r>
       </text>
     </comment>
@@ -1335,7 +1335,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C46+сеть!R81C84+сеть!R81C125</t>
+          <t>formula:=сеть!R81C46+сеть!R81C84+сеть!R81C125</t>
         </r>
       </text>
     </comment>
@@ -1419,7 +1419,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C40+сеть!R81C41</t>
+          <t>formula:=сеть!R81C40+сеть!R81C41</t>
         </r>
       </text>
     </comment>
@@ -1431,7 +1431,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C42+сеть!R81C43</t>
+          <t>formula:=сеть!R81C42+сеть!R81C43</t>
         </r>
       </text>
     </comment>
@@ -1443,7 +1443,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C44+сеть!R81C45</t>
+          <t>formula:=сеть!R81C44+сеть!R81C45</t>
         </r>
       </text>
     </comment>
@@ -1455,7 +1455,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C46</t>
+          <t>formula:=сеть!R81C46</t>
         </r>
       </text>
     </comment>
@@ -1515,7 +1515,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C78+сеть!R81C79</t>
+          <t>formula:=сеть!R81C78+сеть!R81C79</t>
         </r>
       </text>
     </comment>
@@ -1527,7 +1527,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C80+сеть!R81C81</t>
+          <t>formula:=сеть!R81C80+сеть!R81C81</t>
         </r>
       </text>
     </comment>
@@ -1539,7 +1539,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C82+сеть!R81C83</t>
+          <t>formula:=сеть!R81C82+сеть!R81C83</t>
         </r>
       </text>
     </comment>
@@ -1551,7 +1551,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C84</t>
+          <t>formula:=сеть!R81C84</t>
         </r>
       </text>
     </comment>
@@ -1611,7 +1611,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C119+сеть!R81C120</t>
+          <t>formula:=сеть!R81C119+сеть!R81C120</t>
         </r>
       </text>
     </comment>
@@ -1623,7 +1623,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C121+сеть!R81C122</t>
+          <t>formula:=сеть!R81C121+сеть!R81C122</t>
         </r>
       </text>
     </comment>
@@ -1635,7 +1635,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C123+сеть!R81C124</t>
+          <t>formula:=сеть!R81C123+сеть!R81C124</t>
         </r>
       </text>
     </comment>
@@ -1647,7 +1647,7 @@
             <u val="none"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>=сеть!R81C125</t>
+          <t>formula:=сеть!R81C125</t>
         </r>
       </text>
     </comment>
@@ -2022,7 +2022,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -2191,18 +2191,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="none">
         <color rgb="000000"/>
       </left>
       <right/>
@@ -2227,7 +2216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf/>
     <xf applyAlignment="true">
       <alignment horizontal="left"/>
@@ -2280,9 +2269,6 @@
     <xf fontId="5" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf numFmtId="2" fontId="5" borderId="5" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2316,9 +2302,6 @@
     <xf fontId="7" borderId="13" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf fontId="7" borderId="14" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="right" vertical="bottom" wrapText="0"/>
-    </xf>
     <xf numFmtId="3" fontId="5" borderId="11" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2328,7 +2311,7 @@
     <xf fontId="8" applyFont="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf fontId="7" borderId="15" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf fontId="7" borderId="14" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="bottom" wrapText="0"/>
     </xf>
     <xf fontId="7" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true">
@@ -2355,7 +2338,7 @@
   </sheetPr>
   <dimension ref="AN22"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0" rightToLeft="false"/>
+    <sheetView tabSelected="true" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
   <cols>
@@ -2581,68 +2564,66 @@
       <c r="D8" s="17" t="e"/>
       <c r="E8" s="17" t="e"/>
       <c r="F8" s="17" t="e"/>
-      <c r="G8" s="18" t="n">
-        <v>244</v>
-      </c>
-      <c r="H8" s="19" t="n">
+      <c r="G8" s="17" t="e"/>
+      <c r="H8" s="18" t="n">
         <v>91</v>
       </c>
-      <c r="I8" s="20" t="n">
+      <c r="I8" s="19" t="n">
         <v>591212.41</v>
       </c>
-      <c r="J8" s="19" t="n">
+      <c r="J8" s="18" t="n">
         <v>30</v>
       </c>
-      <c r="K8" s="20" t="n">
+      <c r="K8" s="19" t="n">
         <v>413848.69</v>
       </c>
-      <c r="L8" s="21" t="n">
+      <c r="L8" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="M8" s="22" t="n">
+      <c r="M8" s="21" t="n">
         <v>496618.42764408</v>
       </c>
       <c r="N8" s="9" t="e"/>
-      <c r="O8" s="23" t="e"/>
-      <c r="P8" s="23" t="e"/>
-      <c r="Q8" s="23" t="e"/>
-      <c r="R8" s="23" t="e"/>
-      <c r="S8" s="23" t="e"/>
-      <c r="T8" s="24" t="e"/>
-      <c r="U8" s="25" t="e"/>
-      <c r="V8" s="25" t="e"/>
+      <c r="O8" s="22" t="e"/>
+      <c r="P8" s="22" t="e"/>
+      <c r="Q8" s="22" t="e"/>
+      <c r="R8" s="22" t="e"/>
+      <c r="S8" s="22" t="e"/>
+      <c r="T8" s="23" t="e"/>
+      <c r="U8" s="24" t="e"/>
+      <c r="V8" s="24" t="e"/>
       <c r="W8" s="9" t="e"/>
-      <c r="X8" s="23" t="e"/>
-      <c r="Y8" s="23" t="e"/>
-      <c r="Z8" s="23" t="e"/>
-      <c r="AA8" s="23" t="e"/>
-      <c r="AB8" s="23" t="e"/>
-      <c r="AC8" s="24" t="e"/>
-      <c r="AD8" s="25" t="e"/>
-      <c r="AE8" s="25" t="e"/>
+      <c r="X8" s="22" t="e"/>
+      <c r="Y8" s="22" t="e"/>
+      <c r="Z8" s="22" t="e"/>
+      <c r="AA8" s="22" t="e"/>
+      <c r="AB8" s="22" t="e"/>
+      <c r="AC8" s="23" t="e"/>
+      <c r="AD8" s="24" t="e"/>
+      <c r="AE8" s="24" t="e"/>
       <c r="AF8" s="9" t="e"/>
-      <c r="AG8" s="23" t="e"/>
-      <c r="AH8" s="23" t="e"/>
-      <c r="AI8" s="23" t="e"/>
-      <c r="AJ8" s="23" t="e"/>
-      <c r="AK8" s="23" t="e"/>
-      <c r="AL8" s="24" t="e"/>
-      <c r="AM8" s="25" t="e"/>
-      <c r="AN8" s="25" t="e"/>
+      <c r="AG8" s="22" t="e"/>
+      <c r="AH8" s="22" t="e"/>
+      <c r="AI8" s="22" t="e"/>
+      <c r="AJ8" s="22" t="e"/>
+      <c r="AK8" s="22" t="e"/>
+      <c r="AL8" s="23" t="e"/>
+      <c r="AM8" s="24" t="e"/>
+      <c r="AN8" s="24" t="e"/>
     </row>
     <row r="9" ht="16" customHeight="true">
-      <c r="B9" s="26" t="e"/>
-      <c r="C9" s="26" t="e"/>
-      <c r="D9" s="27" t="e"/>
-      <c r="E9" s="27" t="e"/>
-      <c r="F9" s="27" t="e"/>
-      <c r="G9" s="27" t="e"/>
-      <c r="H9" s="26" t="e"/>
-      <c r="I9" s="26" t="e"/>
-      <c r="J9" s="28" t="e"/>
-      <c r="K9" s="28" t="e"/>
-      <c r="L9" s="29" t="e"/>
-      <c r="M9" s="30" t="e"/>
+      <c r="B9" s="25" t="e"/>
+      <c r="C9" s="25" t="e"/>
+      <c r="D9" s="26" t="e"/>
+      <c r="E9" s="26" t="e"/>
+      <c r="F9" s="26" t="e"/>
+      <c r="G9" s="26" t="e"/>
+      <c r="H9" s="25" t="e"/>
+      <c r="I9" s="25" t="e"/>
+      <c r="J9" s="27" t="e"/>
+      <c r="K9" s="27" t="e"/>
+      <c r="L9" s="27" t="e"/>
+      <c r="M9" s="28" t="e"/>
     </row>
     <row r="10" ht="13" customHeight="true"/>
     <row r="11" ht="15" customHeight="true">
@@ -2670,66 +2651,64 @@
       <c r="D12" s="17" t="e"/>
       <c r="E12" s="17" t="e"/>
       <c r="F12" s="17" t="e"/>
-      <c r="G12" s="18" t="n">
-        <v>256</v>
-      </c>
-      <c r="H12" s="19" t="n">
+      <c r="G12" s="17" t="e"/>
+      <c r="H12" s="18" t="n">
         <v>95.5</v>
       </c>
-      <c r="I12" s="20" t="n">
+      <c r="I12" s="19" t="n">
         <v>357825</v>
       </c>
-      <c r="J12" s="19" t="n">
+      <c r="J12" s="18" t="n">
         <v>40</v>
       </c>
-      <c r="K12" s="20" t="n">
+      <c r="K12" s="19" t="n">
         <v>214695</v>
       </c>
       <c r="L12" s="17" t="e"/>
-      <c r="M12" s="31" t="n">
+      <c r="M12" s="29" t="n">
         <v>214695</v>
       </c>
       <c r="N12" s="9" t="e"/>
-      <c r="O12" s="23" t="e"/>
-      <c r="P12" s="23" t="e"/>
-      <c r="Q12" s="23" t="e"/>
-      <c r="R12" s="23" t="e"/>
-      <c r="S12" s="23" t="e"/>
-      <c r="T12" s="24" t="e"/>
-      <c r="U12" s="25" t="e"/>
-      <c r="V12" s="25" t="e"/>
+      <c r="O12" s="22" t="e"/>
+      <c r="P12" s="22" t="e"/>
+      <c r="Q12" s="22" t="e"/>
+      <c r="R12" s="22" t="e"/>
+      <c r="S12" s="22" t="e"/>
+      <c r="T12" s="23" t="e"/>
+      <c r="U12" s="24" t="e"/>
+      <c r="V12" s="24" t="e"/>
       <c r="W12" s="9" t="e"/>
-      <c r="X12" s="23" t="e"/>
-      <c r="Y12" s="23" t="e"/>
-      <c r="Z12" s="23" t="e"/>
-      <c r="AA12" s="23" t="e"/>
-      <c r="AB12" s="23" t="e"/>
-      <c r="AC12" s="24" t="e"/>
-      <c r="AD12" s="25" t="e"/>
-      <c r="AE12" s="25" t="e"/>
+      <c r="X12" s="22" t="e"/>
+      <c r="Y12" s="22" t="e"/>
+      <c r="Z12" s="22" t="e"/>
+      <c r="AA12" s="22" t="e"/>
+      <c r="AB12" s="22" t="e"/>
+      <c r="AC12" s="23" t="e"/>
+      <c r="AD12" s="24" t="e"/>
+      <c r="AE12" s="24" t="e"/>
       <c r="AF12" s="9" t="e"/>
-      <c r="AG12" s="23" t="e"/>
-      <c r="AH12" s="23" t="e"/>
-      <c r="AI12" s="23" t="e"/>
-      <c r="AJ12" s="23" t="e"/>
-      <c r="AK12" s="23" t="e"/>
-      <c r="AL12" s="24" t="e"/>
-      <c r="AM12" s="25" t="e"/>
-      <c r="AN12" s="25" t="e"/>
+      <c r="AG12" s="22" t="e"/>
+      <c r="AH12" s="22" t="e"/>
+      <c r="AI12" s="22" t="e"/>
+      <c r="AJ12" s="22" t="e"/>
+      <c r="AK12" s="22" t="e"/>
+      <c r="AL12" s="23" t="e"/>
+      <c r="AM12" s="24" t="e"/>
+      <c r="AN12" s="24" t="e"/>
     </row>
     <row r="13" ht="16" customHeight="true">
-      <c r="B13" s="26" t="e"/>
-      <c r="C13" s="26" t="e"/>
-      <c r="D13" s="27" t="e"/>
-      <c r="E13" s="27" t="e"/>
-      <c r="F13" s="27" t="e"/>
-      <c r="G13" s="27" t="e"/>
-      <c r="H13" s="26" t="e"/>
-      <c r="I13" s="26" t="e"/>
-      <c r="J13" s="28" t="e"/>
-      <c r="K13" s="28" t="e"/>
-      <c r="L13" s="29" t="e"/>
-      <c r="M13" s="30" t="e"/>
+      <c r="B13" s="25" t="e"/>
+      <c r="C13" s="25" t="e"/>
+      <c r="D13" s="26" t="e"/>
+      <c r="E13" s="26" t="e"/>
+      <c r="F13" s="26" t="e"/>
+      <c r="G13" s="26" t="e"/>
+      <c r="H13" s="25" t="e"/>
+      <c r="I13" s="25" t="e"/>
+      <c r="J13" s="27" t="e"/>
+      <c r="K13" s="27" t="e"/>
+      <c r="L13" s="27" t="e"/>
+      <c r="M13" s="28" t="e"/>
     </row>
     <row r="14" ht="13" customHeight="true"/>
     <row r="15" ht="15" customHeight="true">
@@ -2759,46 +2738,46 @@
       <c r="F16" s="17" t="e"/>
       <c r="G16" s="17" t="e"/>
       <c r="H16" s="17" t="e"/>
-      <c r="I16" s="19" t="n">
+      <c r="I16" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="J16" s="19" t="n">
+      <c r="J16" s="18" t="n">
         <v>83</v>
       </c>
-      <c r="K16" s="19" t="n">
+      <c r="K16" s="18" t="n">
         <v>0</v>
       </c>
-      <c r="L16" s="21" t="n">
+      <c r="L16" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="M16" s="32" t="e"/>
+      <c r="M16" s="30" t="e"/>
       <c r="N16" s="9" t="e"/>
-      <c r="O16" s="23" t="e"/>
-      <c r="P16" s="23" t="e"/>
-      <c r="Q16" s="23" t="e"/>
-      <c r="R16" s="23" t="e"/>
-      <c r="S16" s="23" t="e"/>
-      <c r="T16" s="24" t="e"/>
-      <c r="U16" s="25" t="e"/>
-      <c r="V16" s="25" t="e"/>
+      <c r="O16" s="22" t="e"/>
+      <c r="P16" s="22" t="e"/>
+      <c r="Q16" s="22" t="e"/>
+      <c r="R16" s="22" t="e"/>
+      <c r="S16" s="22" t="e"/>
+      <c r="T16" s="23" t="e"/>
+      <c r="U16" s="24" t="e"/>
+      <c r="V16" s="24" t="e"/>
       <c r="W16" s="9" t="e"/>
-      <c r="X16" s="23" t="e"/>
-      <c r="Y16" s="23" t="e"/>
-      <c r="Z16" s="23" t="e"/>
-      <c r="AA16" s="23" t="e"/>
-      <c r="AB16" s="23" t="e"/>
-      <c r="AC16" s="24" t="e"/>
-      <c r="AD16" s="25" t="e"/>
-      <c r="AE16" s="25" t="e"/>
+      <c r="X16" s="22" t="e"/>
+      <c r="Y16" s="22" t="e"/>
+      <c r="Z16" s="22" t="e"/>
+      <c r="AA16" s="22" t="e"/>
+      <c r="AB16" s="22" t="e"/>
+      <c r="AC16" s="23" t="e"/>
+      <c r="AD16" s="24" t="e"/>
+      <c r="AE16" s="24" t="e"/>
       <c r="AF16" s="9" t="e"/>
-      <c r="AG16" s="23" t="e"/>
-      <c r="AH16" s="23" t="e"/>
-      <c r="AI16" s="23" t="e"/>
-      <c r="AJ16" s="23" t="e"/>
-      <c r="AK16" s="23" t="e"/>
-      <c r="AL16" s="24" t="e"/>
-      <c r="AM16" s="25" t="e"/>
-      <c r="AN16" s="25" t="e"/>
+      <c r="AG16" s="22" t="e"/>
+      <c r="AH16" s="22" t="e"/>
+      <c r="AI16" s="22" t="e"/>
+      <c r="AJ16" s="22" t="e"/>
+      <c r="AK16" s="22" t="e"/>
+      <c r="AL16" s="23" t="e"/>
+      <c r="AM16" s="24" t="e"/>
+      <c r="AN16" s="24" t="e"/>
     </row>
     <row r="17" ht="15" customHeight="true">
       <c r="B17" s="15" t="e"/>
@@ -2808,93 +2787,91 @@
       <c r="D17" s="17" t="e"/>
       <c r="E17" s="17" t="e"/>
       <c r="F17" s="17" t="e"/>
-      <c r="G17" s="18" t="n">
-        <v>256</v>
-      </c>
-      <c r="H17" s="19" t="n">
+      <c r="G17" s="17" t="e"/>
+      <c r="H17" s="18" t="n">
         <v>94.82</v>
       </c>
-      <c r="I17" s="20" t="n">
+      <c r="I17" s="19" t="n">
         <v>54340600</v>
       </c>
-      <c r="J17" s="19" t="n">
+      <c r="J17" s="18" t="n">
         <v>80</v>
       </c>
-      <c r="K17" s="20" t="n">
+      <c r="K17" s="19" t="n">
         <v>10868120</v>
       </c>
-      <c r="L17" s="21" t="n">
+      <c r="L17" s="20" t="n">
         <v>0.2</v>
       </c>
-      <c r="M17" s="31" t="n">
+      <c r="M17" s="29" t="n">
         <v>13041744</v>
       </c>
       <c r="N17" s="9" t="e"/>
-      <c r="O17" s="23" t="e"/>
-      <c r="P17" s="23" t="e"/>
-      <c r="Q17" s="23" t="e"/>
-      <c r="R17" s="23" t="e"/>
-      <c r="S17" s="23" t="e"/>
-      <c r="T17" s="24" t="e"/>
-      <c r="U17" s="25" t="e"/>
-      <c r="V17" s="25" t="e"/>
+      <c r="O17" s="22" t="e"/>
+      <c r="P17" s="22" t="e"/>
+      <c r="Q17" s="22" t="e"/>
+      <c r="R17" s="22" t="e"/>
+      <c r="S17" s="22" t="e"/>
+      <c r="T17" s="23" t="e"/>
+      <c r="U17" s="24" t="e"/>
+      <c r="V17" s="24" t="e"/>
       <c r="W17" s="9" t="e"/>
-      <c r="X17" s="23" t="e"/>
-      <c r="Y17" s="23" t="e"/>
-      <c r="Z17" s="23" t="e"/>
-      <c r="AA17" s="23" t="e"/>
-      <c r="AB17" s="23" t="e"/>
-      <c r="AC17" s="24" t="e"/>
-      <c r="AD17" s="25" t="e"/>
-      <c r="AE17" s="25" t="e"/>
+      <c r="X17" s="22" t="e"/>
+      <c r="Y17" s="22" t="e"/>
+      <c r="Z17" s="22" t="e"/>
+      <c r="AA17" s="22" t="e"/>
+      <c r="AB17" s="22" t="e"/>
+      <c r="AC17" s="23" t="e"/>
+      <c r="AD17" s="24" t="e"/>
+      <c r="AE17" s="24" t="e"/>
       <c r="AF17" s="9" t="e"/>
-      <c r="AG17" s="23" t="e"/>
-      <c r="AH17" s="23" t="e"/>
-      <c r="AI17" s="23" t="e"/>
-      <c r="AJ17" s="23" t="e"/>
-      <c r="AK17" s="23" t="e"/>
-      <c r="AL17" s="24" t="e"/>
-      <c r="AM17" s="25" t="e"/>
-      <c r="AN17" s="25" t="e"/>
+      <c r="AG17" s="22" t="e"/>
+      <c r="AH17" s="22" t="e"/>
+      <c r="AI17" s="22" t="e"/>
+      <c r="AJ17" s="22" t="e"/>
+      <c r="AK17" s="22" t="e"/>
+      <c r="AL17" s="23" t="e"/>
+      <c r="AM17" s="24" t="e"/>
+      <c r="AN17" s="24" t="e"/>
     </row>
     <row r="18" ht="16" customHeight="true">
-      <c r="B18" s="26" t="e"/>
-      <c r="C18" s="26" t="e"/>
-      <c r="D18" s="27" t="e"/>
-      <c r="E18" s="27" t="e"/>
-      <c r="F18" s="27" t="e"/>
-      <c r="G18" s="27" t="e"/>
-      <c r="H18" s="26" t="e"/>
-      <c r="I18" s="26" t="e"/>
-      <c r="J18" s="28" t="e"/>
-      <c r="K18" s="28" t="e"/>
-      <c r="L18" s="29" t="e"/>
-      <c r="M18" s="30" t="e"/>
+      <c r="B18" s="25" t="e"/>
+      <c r="C18" s="25" t="e"/>
+      <c r="D18" s="26" t="e"/>
+      <c r="E18" s="26" t="e"/>
+      <c r="F18" s="26" t="e"/>
+      <c r="G18" s="26" t="e"/>
+      <c r="H18" s="25" t="e"/>
+      <c r="I18" s="25" t="e"/>
+      <c r="J18" s="27" t="e"/>
+      <c r="K18" s="27" t="e"/>
+      <c r="L18" s="27" t="e"/>
+      <c r="M18" s="28" t="e"/>
     </row>
     <row r="19" ht="13" customHeight="true"/>
     <row r="20" ht="13" customHeight="true"/>
     <row r="21" ht="13" customHeight="true"/>
     <row r="22" ht="16" customHeight="true">
-      <c r="J22" s="33" t="s">
+      <c r="J22" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="K22" s="34" t="e"/>
-      <c r="M22" s="35" t="e"/>
-      <c r="S22" s="33" t="s">
+      <c r="K22" s="32" t="e"/>
+      <c r="M22" s="33" t="e"/>
+      <c r="S22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T22" s="33" t="e"/>
-      <c r="V22" s="33" t="e"/>
-      <c r="AB22" s="33" t="s">
+      <c r="T22" s="31" t="e"/>
+      <c r="V22" s="31" t="e"/>
+      <c r="AB22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AC22" s="33" t="e"/>
-      <c r="AE22" s="33" t="e"/>
-      <c r="AK22" s="33" t="s">
+      <c r="AC22" s="31" t="e"/>
+      <c r="AE22" s="31" t="e"/>
+      <c r="AK22" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="AL22" s="33" t="e"/>
-      <c r="AN22" s="33" t="e"/>
+      <c r="AL22" s="31" t="e"/>
+      <c r="AN22" s="31" t="e"/>
     </row>
   </sheetData>
   <mergeCells count="3">
